--- a/Racecard_20250510.xlsx
+++ b/Racecard_20250510.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TerryLaw\Documents\GitHub\terrysclaw\download-racing-result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terry\Documents\GitHub\download-racing-result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F59C9DE-5E56-47E9-A278-AB07101D2951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A598C9C-B4EC-41CC-BB0E-181BB928AF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="22770" windowHeight="14835" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Race_1" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5339" uniqueCount="1892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5338" uniqueCount="1891">
   <si>
     <t>日期</t>
   </si>
@@ -5779,9 +5779,6 @@
   </si>
   <si>
     <t>上場最快</t>
-  </si>
-  <si>
-    <t>開心宇宙</t>
   </si>
 </sst>
 </file>
@@ -5789,13 +5786,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -5803,11 +5800,19 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5851,7 +5856,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6165,7 +6170,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -9306,6 +9311,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -9316,7 +9322,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -12210,6 +12216,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -12220,7 +12227,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -12324,42 +12331,43 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2917FD8-17FE-48CE-B3C0-B1D3C023C2D8}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1888</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5" t="s">
         <v>1889</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="4" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="5" t="s">
         <v>1890</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -12435,8 +12443,52 @@
         <f ca="1">SMALL(INDIRECT("Race_" &amp; $A2 &amp; "!CR$2:CR$15"), 1)-SMALL(INDIRECT("Race_" &amp; $A2 &amp; "!CR$2:CR$15"), 2)</f>
         <v>-1.9999999999996021E-2</v>
       </c>
+      <c r="O2">
+        <f>A2</f>
+        <v>1</v>
+      </c>
+      <c r="P2" t="str" cm="1">
+        <f t="array" aca="1" ref="P2" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A2 &amp; "!Cu$2:Cu$15"), 1),
+    INDIRECT("Race_" &amp; $A2 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A2 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>領航傳祺</v>
+      </c>
+      <c r="Q2" t="str" cm="1">
+        <f t="array" aca="1" ref="Q2" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A2 &amp; "!Cu$2:Cu$15"), 2),
+    INDIRECT("Race_" &amp; $A2 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A2 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>肥仔精神</v>
+      </c>
+      <c r="R2" t="str" cm="1">
+        <f t="array" aca="1" ref="R2" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A2 &amp; "!Cu$2:Cu$15"), 3),
+    INDIRECT("Race_" &amp; $A2 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A2 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>駿彩飛馳</v>
+      </c>
+      <c r="S2" t="str" cm="1">
+        <f t="array" aca="1" ref="S2" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A2 &amp; "!Cu$2:Cu$15"), 4),
+    INDIRECT("Race_" &amp; $A2 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A2 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>武林至尊</v>
+      </c>
+      <c r="T2" t="str" cm="1">
+        <f t="array" aca="1" ref="T2" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A2 &amp; "!Cu$2:Cu$15"), 5),
+    INDIRECT("Race_" &amp; $A2 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A2 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>賞豐泰</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -12512,8 +12564,52 @@
         <f t="shared" ref="M3:M12" ca="1" si="5">SMALL(INDIRECT("Race_" &amp; $A3 &amp; "!CR$2:CR$15"), 1)-SMALL(INDIRECT("Race_" &amp; $A3 &amp; "!CR$2:CR$15"), 2)</f>
         <v>-0.17000000000000171</v>
       </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O12" si="6">A3</f>
+        <v>2</v>
+      </c>
+      <c r="P3" t="str" cm="1">
+        <f t="array" aca="1" ref="P3" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A3 &amp; "!Cu$2:Cu$15"), 1),
+    INDIRECT("Race_" &amp; $A3 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A3 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>攻頂</v>
+      </c>
+      <c r="Q3" t="str" cm="1">
+        <f t="array" aca="1" ref="Q3" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A3 &amp; "!Cu$2:Cu$15"), 2),
+    INDIRECT("Race_" &amp; $A3 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A3 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>同喜</v>
+      </c>
+      <c r="R3" t="str" cm="1">
+        <f t="array" aca="1" ref="R3" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A3 &amp; "!Cu$2:Cu$15"), 3),
+    INDIRECT("Race_" &amp; $A3 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A3 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>穿雲達月</v>
+      </c>
+      <c r="S3" t="str" cm="1">
+        <f t="array" aca="1" ref="S3" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A3 &amp; "!Cu$2:Cu$15"), 4),
+    INDIRECT("Race_" &amp; $A3 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A3 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>展雄威</v>
+      </c>
+      <c r="T3" t="str" cm="1">
+        <f t="array" aca="1" ref="T3" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A3 &amp; "!Cu$2:Cu$15"), 5),
+    INDIRECT("Race_" &amp; $A3 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A3 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>拉合爾</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -12589,8 +12685,52 @@
         <f t="shared" ca="1" si="5"/>
         <v>-0.12000000000000455</v>
       </c>
+      <c r="O4">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="P4" t="str" cm="1">
+        <f t="array" aca="1" ref="P4" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A4 &amp; "!Cu$2:Cu$15"), 1),
+    INDIRECT("Race_" &amp; $A4 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A4 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>小皇爺</v>
+      </c>
+      <c r="Q4" t="str" cm="1">
+        <f t="array" aca="1" ref="Q4" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A4 &amp; "!Cu$2:Cu$15"), 2),
+    INDIRECT("Race_" &amp; $A4 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A4 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>同心同樂</v>
+      </c>
+      <c r="R4" t="str" cm="1">
+        <f t="array" aca="1" ref="R4" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A4 &amp; "!Cu$2:Cu$15"), 3),
+    INDIRECT("Race_" &amp; $A4 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A4 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>超旺財</v>
+      </c>
+      <c r="S4" t="str" cm="1">
+        <f t="array" aca="1" ref="S4" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A4 &amp; "!Cu$2:Cu$15"), 4),
+    INDIRECT("Race_" &amp; $A4 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A4 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>耀昌勝世</v>
+      </c>
+      <c r="T4" t="str" cm="1">
+        <f t="array" aca="1" ref="T4" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A4 &amp; "!Cu$2:Cu$15"), 5),
+    INDIRECT("Race_" &amp; $A4 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A4 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>艾彼奧</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -12666,8 +12806,52 @@
         <f t="shared" ca="1" si="5"/>
         <v>-0.15999999999999659</v>
       </c>
+      <c r="O5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="P5" t="str" cm="1">
+        <f t="array" aca="1" ref="P5" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A5 &amp; "!Cu$2:Cu$15"), 1),
+    INDIRECT("Race_" &amp; $A5 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A5 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>川河型駒</v>
+      </c>
+      <c r="Q5" t="str" cm="1">
+        <f t="array" aca="1" ref="Q5" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A5 &amp; "!Cu$2:Cu$15"), 2),
+    INDIRECT("Race_" &amp; $A5 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A5 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>大利好運</v>
+      </c>
+      <c r="R5" t="str" cm="1">
+        <f t="array" aca="1" ref="R5" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A5 &amp; "!Cu$2:Cu$15"), 3),
+    INDIRECT("Race_" &amp; $A5 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A5 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>飛騰騅</v>
+      </c>
+      <c r="S5" t="str" cm="1">
+        <f t="array" aca="1" ref="S5" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A5 &amp; "!Cu$2:Cu$15"), 4),
+    INDIRECT("Race_" &amp; $A5 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A5 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>縱橫大進</v>
+      </c>
+      <c r="T5" t="str" cm="1">
+        <f t="array" aca="1" ref="T5" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A5 &amp; "!Cu$2:Cu$15"), 5),
+    INDIRECT("Race_" &amp; $A5 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A5 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>天時明駒</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -12743,8 +12927,52 @@
         <f t="shared" ca="1" si="5"/>
         <v>-0.18999999999999773</v>
       </c>
+      <c r="O6">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="P6" t="str" cm="1">
+        <f t="array" aca="1" ref="P6" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A6 &amp; "!Cu$2:Cu$15"), 1),
+    INDIRECT("Race_" &amp; $A6 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A6 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>康昌之星</v>
+      </c>
+      <c r="Q6" t="str" cm="1">
+        <f t="array" aca="1" ref="Q6" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A6 &amp; "!Cu$2:Cu$15"), 2),
+    INDIRECT("Race_" &amp; $A6 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A6 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>錶之星河</v>
+      </c>
+      <c r="R6" t="str" cm="1">
+        <f t="array" aca="1" ref="R6" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A6 &amp; "!Cu$2:Cu$15"), 3),
+    INDIRECT("Race_" &amp; $A6 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A6 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>宸居武士</v>
+      </c>
+      <c r="S6" t="str" cm="1">
+        <f t="array" aca="1" ref="S6" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A6 &amp; "!Cu$2:Cu$15"), 4),
+    INDIRECT("Race_" &amp; $A6 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A6 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>幸運芙蓉</v>
+      </c>
+      <c r="T6" t="str" cm="1">
+        <f t="array" aca="1" ref="T6" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A6 &amp; "!Cu$2:Cu$15"), 5),
+    INDIRECT("Race_" &amp; $A6 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A6 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>美麗在線</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -12780,8 +13008,13 @@
 )</f>
         <v>海藍寶</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>1891</v>
+      <c r="G7" s="3" t="str" cm="1">
+        <f t="array" aca="1" ref="G7" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A7 &amp; "!Cu$2:Cu$15"), 2),
+    INDIRECT("Race_" &amp; $A7 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A7 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>快樂高球</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -12815,8 +13048,52 @@
         <f t="shared" ca="1" si="5"/>
         <v>-0.32000000000000739</v>
       </c>
+      <c r="O7">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="P7" t="str" cm="1">
+        <f t="array" aca="1" ref="P7" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A7 &amp; "!Cu$2:Cu$15"), 1),
+    INDIRECT("Race_" &amp; $A7 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A7 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>海藍寶</v>
+      </c>
+      <c r="Q7" t="str" cm="1">
+        <f t="array" aca="1" ref="Q7" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A7 &amp; "!Cu$2:Cu$15"), 2),
+    INDIRECT("Race_" &amp; $A7 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A7 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>快樂高球</v>
+      </c>
+      <c r="R7" t="str" cm="1">
+        <f t="array" aca="1" ref="R7" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A7 &amp; "!Cu$2:Cu$15"), 3),
+    INDIRECT("Race_" &amp; $A7 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A7 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>小鳥天堂</v>
+      </c>
+      <c r="S7" t="str" cm="1">
+        <f t="array" aca="1" ref="S7" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A7 &amp; "!Cu$2:Cu$15"), 4),
+    INDIRECT("Race_" &amp; $A7 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A7 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>勁騷</v>
+      </c>
+      <c r="T7" t="str" cm="1">
+        <f t="array" aca="1" ref="T7" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A7 &amp; "!Cu$2:Cu$15"), 5),
+    INDIRECT("Race_" &amp; $A7 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A7 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>勇闖高峰</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -12892,8 +13169,52 @@
         <f t="shared" ca="1" si="5"/>
         <v>-6.9999999999993179E-2</v>
       </c>
+      <c r="O8">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="P8" t="str" cm="1">
+        <f t="array" aca="1" ref="P8" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A8 &amp; "!Cu$2:Cu$15"), 1),
+    INDIRECT("Race_" &amp; $A8 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A8 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>超加加</v>
+      </c>
+      <c r="Q8" t="str" cm="1">
+        <f t="array" aca="1" ref="Q8" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A8 &amp; "!Cu$2:Cu$15"), 2),
+    INDIRECT("Race_" &amp; $A8 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A8 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>精英雄心</v>
+      </c>
+      <c r="R8" t="str" cm="1">
+        <f t="array" aca="1" ref="R8" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A8 &amp; "!Cu$2:Cu$15"), 3),
+    INDIRECT("Race_" &amp; $A8 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A8 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>精英雄心</v>
+      </c>
+      <c r="S8" t="str" cm="1">
+        <f t="array" aca="1" ref="S8" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A8 &amp; "!Cu$2:Cu$15"), 4),
+    INDIRECT("Race_" &amp; $A8 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A8 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>都靈福星</v>
+      </c>
+      <c r="T8" t="str" cm="1">
+        <f t="array" aca="1" ref="T8" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A8 &amp; "!Cu$2:Cu$15"), 5),
+    INDIRECT("Race_" &amp; $A8 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A8 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>魅力寶駒</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -12969,8 +13290,52 @@
         <f t="shared" ca="1" si="5"/>
         <v>-0.17999999999999261</v>
       </c>
+      <c r="O9">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="P9" t="str" cm="1">
+        <f t="array" aca="1" ref="P9" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A9 &amp; "!Cu$2:Cu$15"), 1),
+    INDIRECT("Race_" &amp; $A9 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A9 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>至尊高超</v>
+      </c>
+      <c r="Q9" t="str" cm="1">
+        <f t="array" aca="1" ref="Q9" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A9 &amp; "!Cu$2:Cu$15"), 2),
+    INDIRECT("Race_" &amp; $A9 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A9 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>不同世界</v>
+      </c>
+      <c r="R9" t="str" cm="1">
+        <f t="array" aca="1" ref="R9" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A9 &amp; "!Cu$2:Cu$15"), 3),
+    INDIRECT("Race_" &amp; $A9 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A9 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>光年魅力</v>
+      </c>
+      <c r="S9" t="str" cm="1">
+        <f t="array" aca="1" ref="S9" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A9 &amp; "!Cu$2:Cu$15"), 4),
+    INDIRECT("Race_" &amp; $A9 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A9 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>喵喵怪</v>
+      </c>
+      <c r="T9" t="str" cm="1">
+        <f t="array" aca="1" ref="T9" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A9 &amp; "!Cu$2:Cu$15"), 5),
+    INDIRECT("Race_" &amp; $A9 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A9 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>自力更生</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -13046,8 +13411,52 @@
         <f t="shared" ca="1" si="5"/>
         <v>-0.12999999999999545</v>
       </c>
+      <c r="O10">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="P10" t="str" cm="1">
+        <f t="array" aca="1" ref="P10" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A10 &amp; "!Cu$2:Cu$15"), 1),
+    INDIRECT("Race_" &amp; $A10 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A10 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>正氣青驅</v>
+      </c>
+      <c r="Q10" t="str" cm="1">
+        <f t="array" aca="1" ref="Q10" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A10 &amp; "!Cu$2:Cu$15"), 2),
+    INDIRECT("Race_" &amp; $A10 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A10 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>風再起時</v>
+      </c>
+      <c r="R10" t="str" cm="1">
+        <f t="array" aca="1" ref="R10" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A10 &amp; "!Cu$2:Cu$15"), 3),
+    INDIRECT("Race_" &amp; $A10 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A10 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>魅影戈飛</v>
+      </c>
+      <c r="S10" t="str" cm="1">
+        <f t="array" aca="1" ref="S10" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A10 &amp; "!Cu$2:Cu$15"), 4),
+    INDIRECT("Race_" &amp; $A10 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A10 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>非凡達</v>
+      </c>
+      <c r="T10" t="str" cm="1">
+        <f t="array" aca="1" ref="T10" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A10 &amp; "!Cu$2:Cu$15"), 5),
+    INDIRECT("Race_" &amp; $A10 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A10 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>至尊瑰寶</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -13123,8 +13532,52 @@
         <f t="shared" ca="1" si="5"/>
         <v>-0.20000000000000284</v>
       </c>
+      <c r="O11">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="P11" t="str" cm="1">
+        <f t="array" aca="1" ref="P11" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A11 &amp; "!Cu$2:Cu$15"), 1),
+    INDIRECT("Race_" &amp; $A11 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A11 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>愛馬善</v>
+      </c>
+      <c r="Q11" t="str" cm="1">
+        <f t="array" aca="1" ref="Q11" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A11 &amp; "!Cu$2:Cu$15"), 2),
+    INDIRECT("Race_" &amp; $A11 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A11 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>舉步生風</v>
+      </c>
+      <c r="R11" t="str" cm="1">
+        <f t="array" aca="1" ref="R11" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A11 &amp; "!Cu$2:Cu$15"), 3),
+    INDIRECT("Race_" &amp; $A11 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A11 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>潮州精神</v>
+      </c>
+      <c r="S11" t="str" cm="1">
+        <f t="array" aca="1" ref="S11" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A11 &amp; "!Cu$2:Cu$15"), 4),
+    INDIRECT("Race_" &amp; $A11 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A11 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>笑傲江湖</v>
+      </c>
+      <c r="T11" t="str" cm="1">
+        <f t="array" aca="1" ref="T11" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A11 &amp; "!Cu$2:Cu$15"), 5),
+    INDIRECT("Race_" &amp; $A11 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A11 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>華麗再勝</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -13200,6 +13653,50 @@
         <f t="shared" ca="1" si="5"/>
         <v>#NUM!</v>
       </c>
+      <c r="O12">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="P12" t="e" cm="1">
+        <f t="array" aca="1" ref="P12" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A12 &amp; "!Cu$2:Cu$15"), 1),
+    INDIRECT("Race_" &amp; $A12 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A12 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q12" t="e" cm="1">
+        <f t="array" aca="1" ref="Q12" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A12 &amp; "!Cu$2:Cu$15"), 2),
+    INDIRECT("Race_" &amp; $A12 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A12 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="R12" t="e" cm="1">
+        <f t="array" aca="1" ref="R12" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A12 &amp; "!Cu$2:Cu$15"), 3),
+    INDIRECT("Race_" &amp; $A12 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A12 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="S12" t="e" cm="1">
+        <f t="array" aca="1" ref="S12" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A12 &amp; "!Cu$2:Cu$15"), 4),
+    INDIRECT("Race_" &amp; $A12 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A12 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T12" t="e" cm="1">
+        <f t="array" aca="1" ref="T12" ca="1">_xlfn.XLOOKUP(
+    SMALL(INDIRECT("Race_" &amp; $A12 &amp; "!Cu$2:Cu$15"), 5),
+    INDIRECT("Race_" &amp; $A12 &amp; "!Cu$2:Cu$15"),
+    INDIRECT("Race_" &amp; $A12 &amp; "!Cl$2:Cl$15")
+)</f>
+        <v>#NUM!</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -13207,6 +13704,7 @@
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="K1:M1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13217,7 +13715,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -15851,6 +16349,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -15861,7 +16360,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -18792,6 +19291,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -18802,7 +19302,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -21868,6 +22368,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -21878,7 +22379,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -24761,6 +25262,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -24771,7 +25273,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -27485,6 +27987,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -27495,7 +27998,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -29922,6 +30425,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -29932,7 +30436,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -32407,6 +32911,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -32417,7 +32922,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -34924,6 +35429,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>